--- a/Saved_file/EM003/2026_11/sap_data.xlsx
+++ b/Saved_file/EM003/2026_11/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9057</t>
+          <t>CUST8341</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18299728</v>
+        <v>22090155</v>
       </c>
       <c r="E2" t="n">
-        <v>4315890</v>
+        <v>5306522</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST1056</t>
+          <t>CUST7779</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28104863</v>
+        <v>17045627</v>
       </c>
       <c r="E3" t="n">
-        <v>4560452</v>
+        <v>2649509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST6602</t>
+          <t>CUST8784</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33528905</v>
+        <v>27507435</v>
       </c>
       <c r="E4" t="n">
-        <v>8155199</v>
+        <v>6656200</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST1056</t>
+          <t>CUST9332</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35557915</v>
+        <v>31295648</v>
       </c>
       <c r="E5" t="n">
-        <v>6761488</v>
+        <v>7070512</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST9107</t>
+          <t>CUST8624</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37901652</v>
+        <v>26619504</v>
       </c>
       <c r="E6" t="n">
-        <v>5799853</v>
+        <v>6079608</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST5427</t>
+          <t>CUST5388</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15594311</v>
+        <v>24097388</v>
       </c>
       <c r="E7" t="n">
-        <v>2572458</v>
+        <v>4943778</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4563</t>
+          <t>CUST3242</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17947501</v>
+        <v>32115418</v>
       </c>
       <c r="E8" t="n">
-        <v>3537822</v>
+        <v>5887062</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8749</t>
+          <t>CUST5388</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20617361</v>
+        <v>22109854</v>
       </c>
       <c r="E9" t="n">
-        <v>4970737</v>
+        <v>4807782</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST5560</t>
+          <t>CUST3458</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15970127</v>
+        <v>27616198</v>
       </c>
       <c r="E10" t="n">
-        <v>3173764</v>
+        <v>5401195</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -983,24 +983,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST4751</t>
+          <t>CUST8295</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35969143</v>
+        <v>15332005</v>
       </c>
       <c r="E11" t="n">
-        <v>6414257</v>
+        <v>2352301</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-11-05</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST1457</t>
+          <t>CUST3890</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18838465</v>
+        <v>31633338</v>
       </c>
       <c r="E12" t="n">
-        <v>3472731</v>
+        <v>6440351</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7242</t>
+          <t>CUST2987</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31487659</v>
+        <v>19086919</v>
       </c>
       <c r="E13" t="n">
-        <v>6689373</v>
+        <v>3927002</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST3558</t>
+          <t>CUST6369</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39175596</v>
+        <v>16928813</v>
       </c>
       <c r="E14" t="n">
-        <v>7640522</v>
+        <v>3698347</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST3558</t>
+          <t>CUST8295</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17633158</v>
+        <v>39016341</v>
       </c>
       <c r="E15" t="n">
-        <v>3812932</v>
+        <v>9396788</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST7379</t>
+          <t>CUST5868</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20097608</v>
+        <v>28511996</v>
       </c>
       <c r="E16" t="n">
-        <v>4938547</v>
+        <v>4909332</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST8388</t>
+          <t>CUST7361</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27111098</v>
+        <v>20821518</v>
       </c>
       <c r="E17" t="n">
-        <v>6591706</v>
+        <v>4512136</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST9031</t>
+          <t>CUST1508</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22409090</v>
+        <v>38415213</v>
       </c>
       <c r="E18" t="n">
-        <v>4471414</v>
+        <v>8778680</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST2254</t>
+          <t>CUST8624</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19743119</v>
+        <v>26164544</v>
       </c>
       <c r="E19" t="n">
-        <v>4277047</v>
+        <v>4014188</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST1678</t>
+          <t>CUST2179</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30816353</v>
+        <v>32383585</v>
       </c>
       <c r="E20" t="n">
-        <v>5351334</v>
+        <v>5939734</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST4563</t>
+          <t>CUST2022</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21502037</v>
+        <v>19768537</v>
       </c>
       <c r="E21" t="n">
-        <v>4053656</v>
+        <v>4179374</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST6244</t>
+          <t>CUST7812</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16687250</v>
+        <v>26070279</v>
       </c>
       <c r="E22" t="n">
-        <v>4095384</v>
+        <v>4542071</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST9782</t>
+          <t>CUST9332</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17706179</v>
+        <v>17720392</v>
       </c>
       <c r="E23" t="n">
-        <v>2816454</v>
+        <v>4239903</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST1056</t>
+          <t>CUST7884</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>39660842</v>
+        <v>27015353</v>
       </c>
       <c r="E24" t="n">
-        <v>6511487</v>
+        <v>4492351</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3558</t>
+          <t>CUST5868</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20716812</v>
+        <v>27205323</v>
       </c>
       <c r="E25" t="n">
-        <v>3404615</v>
+        <v>4364753</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST5427</t>
+          <t>CUST2392</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23111614</v>
+        <v>30023742</v>
       </c>
       <c r="E26" t="n">
-        <v>5742814</v>
+        <v>4798218</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST8835</t>
+          <t>CUST1669</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29707953</v>
+        <v>35195832</v>
       </c>
       <c r="E27" t="n">
-        <v>6110877</v>
+        <v>8020045</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-11-28</t>
+          <t>2026-11-11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST5427</t>
+          <t>CUST2022</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37387080</v>
+        <v>26971430</v>
       </c>
       <c r="E28" t="n">
-        <v>9171878</v>
+        <v>5647571</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST5719</t>
+          <t>CUST1508</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34965701</v>
+        <v>16131940</v>
       </c>
       <c r="E29" t="n">
-        <v>8569002</v>
+        <v>2581862</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST5427</t>
+          <t>CUST8624</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25327760</v>
+        <v>27428423</v>
       </c>
       <c r="E30" t="n">
-        <v>5891981</v>
+        <v>5815505</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST7968</t>
+          <t>CUST8150</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32487304</v>
+        <v>31958101</v>
       </c>
       <c r="E31" t="n">
-        <v>5378189</v>
+        <v>7886397</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST8388</t>
+          <t>CUST7247</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15361133</v>
+        <v>28625108</v>
       </c>
       <c r="E32" t="n">
-        <v>2380474</v>
+        <v>6539841</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-11-05</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST6646</t>
+          <t>CUST1673</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>29215900</v>
+        <v>19257038</v>
       </c>
       <c r="E33" t="n">
-        <v>6157062</v>
+        <v>3318949</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST6557</t>
+          <t>CUST2179</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>23136615</v>
+        <v>38087914</v>
       </c>
       <c r="E34" t="n">
-        <v>3814727</v>
+        <v>7794804</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST6602</t>
+          <t>CUST3751</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23991452</v>
+        <v>35575842</v>
       </c>
       <c r="E35" t="n">
-        <v>5408551</v>
+        <v>6485046</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8835</t>
+          <t>CUST8653</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>26921460</v>
+        <v>31988102</v>
       </c>
       <c r="E36" t="n">
-        <v>4837662</v>
+        <v>7753636</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6713</t>
+          <t>CUST7944</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>31728200</v>
+        <v>34069966</v>
       </c>
       <c r="E37" t="n">
-        <v>5397240</v>
+        <v>5932786</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST8987</t>
+          <t>CUST4813</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17534638</v>
+        <v>34119082</v>
       </c>
       <c r="E38" t="n">
-        <v>2742174</v>
+        <v>7438358</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST4751</t>
+          <t>CUST3458</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>35907911</v>
+        <v>34083752</v>
       </c>
       <c r="E39" t="n">
-        <v>8159836</v>
+        <v>6562446</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3558</t>
+          <t>CUST6369</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29012446</v>
+        <v>19747737</v>
       </c>
       <c r="E40" t="n">
-        <v>5400970</v>
+        <v>4318365</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST4705</t>
+          <t>CUST7676</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>33640625</v>
+        <v>19077391</v>
       </c>
       <c r="E41" t="n">
-        <v>8238659</v>
+        <v>3502019</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST4329</t>
+          <t>CUST8784</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>23964018</v>
+        <v>22518118</v>
       </c>
       <c r="E42" t="n">
-        <v>4520191</v>
+        <v>4749783</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST9057</t>
+          <t>CUST7247</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21615642</v>
+        <v>36276303</v>
       </c>
       <c r="E43" t="n">
-        <v>5120651</v>
+        <v>7407974</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST7968</t>
+          <t>CUST2392</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>35938490</v>
+        <v>32295424</v>
       </c>
       <c r="E44" t="n">
-        <v>5982013</v>
+        <v>5813029</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2819,24 +2819,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4100</t>
+          <t>CUST3890</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>21494139</v>
+        <v>32058022</v>
       </c>
       <c r="E45" t="n">
-        <v>3621092</v>
+        <v>6086300</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST8396</t>
+          <t>CUST8150</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>38399285</v>
+        <v>38840738</v>
       </c>
       <c r="E46" t="n">
-        <v>6286224</v>
+        <v>6144545</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST1457</t>
+          <t>CUST2601</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>23588174</v>
+        <v>18388854</v>
       </c>
       <c r="E47" t="n">
-        <v>4379834</v>
+        <v>3039427</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-11-17</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST9107</t>
+          <t>CUST2392</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20501717</v>
+        <v>31417226</v>
       </c>
       <c r="E48" t="n">
-        <v>3504480</v>
+        <v>5882890</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3013,12 +3013,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST6713</t>
+          <t>CUST8392</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>36720809</v>
+        <v>25679958</v>
       </c>
       <c r="E49" t="n">
-        <v>6189682</v>
+        <v>4777801</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST3558</t>
+          <t>CUST3751</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31470134</v>
+        <v>22063871</v>
       </c>
       <c r="E50" t="n">
-        <v>4743222</v>
+        <v>3995343</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST9782</t>
+          <t>CUST5868</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22329261</v>
+        <v>39195516</v>
       </c>
       <c r="E51" t="n">
-        <v>3689819</v>
+        <v>9343553</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST1637</t>
+          <t>CUST7944</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21204566</v>
+        <v>31613441</v>
       </c>
       <c r="E52" t="n">
-        <v>4917051</v>
+        <v>5833107</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST4705</t>
+          <t>CUST3751</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>27788667</v>
+        <v>28531136</v>
       </c>
       <c r="E53" t="n">
-        <v>5475199</v>
+        <v>4776016</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1637</t>
+          <t>CUST8386</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16214129</v>
+        <v>33481891</v>
       </c>
       <c r="E54" t="n">
-        <v>3380562</v>
+        <v>5758672</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST8898</t>
+          <t>CUST7884</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38842559</v>
+        <v>36873851</v>
       </c>
       <c r="E55" t="n">
-        <v>5993176</v>
+        <v>8896671</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST4979</t>
+          <t>CUST2022</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29473460</v>
+        <v>29481289</v>
       </c>
       <c r="E56" t="n">
-        <v>6827467</v>
+        <v>6118500</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST4979</t>
+          <t>CUST2079</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15699439</v>
+        <v>23852469</v>
       </c>
       <c r="E57" t="n">
-        <v>2807882</v>
+        <v>4902991</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9031</t>
+          <t>CUST3458</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>36109834</v>
+        <v>20340219</v>
       </c>
       <c r="E58" t="n">
-        <v>5458889</v>
+        <v>3359716</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST8749</t>
+          <t>CUST8392</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>28388675</v>
+        <v>29015755</v>
       </c>
       <c r="E59" t="n">
-        <v>6636762</v>
+        <v>4867574</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9202</t>
+          <t>CUST2392</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>24700001</v>
+        <v>27518527</v>
       </c>
       <c r="E60" t="n">
-        <v>5734357</v>
+        <v>5853354</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST5306</t>
+          <t>CUST7779</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>22052961</v>
+        <v>18963428</v>
       </c>
       <c r="E61" t="n">
-        <v>4668196</v>
+        <v>4333738</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST8388</t>
+          <t>CUST6290</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>26123767</v>
+        <v>18223824</v>
       </c>
       <c r="E62" t="n">
-        <v>3936598</v>
+        <v>2735561</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST8388</t>
+          <t>CUST2601</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>29350093</v>
+        <v>27464466</v>
       </c>
       <c r="E63" t="n">
-        <v>4846944</v>
+        <v>6843534</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3840,25 +3840,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST8388</t>
+          <t>CUST8341</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>16352162</v>
+        <v>19128787</v>
       </c>
       <c r="E64" t="n">
-        <v>3646179</v>
+        <v>3917635</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST2392</t>
+          <t>CUST8624</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>24027398</v>
+        <v>19450832</v>
       </c>
       <c r="E65" t="n">
-        <v>4944361</v>
+        <v>3683790</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST3675</t>
+          <t>CUST9595</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>26777610</v>
+        <v>28455052</v>
       </c>
       <c r="E66" t="n">
-        <v>4161158</v>
+        <v>5668632</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST7379</t>
+          <t>CUST8624</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20825676</v>
+        <v>25070035</v>
       </c>
       <c r="E67" t="n">
-        <v>3193611</v>
+        <v>4760299</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4034,17 +4034,17 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST1019</t>
+          <t>CUST8784</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>16458857</v>
+        <v>20804356</v>
       </c>
       <c r="E68" t="n">
-        <v>2848537</v>
+        <v>5191159</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-11-04</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST5560</t>
+          <t>CUST7247</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>23227026</v>
+        <v>36252337</v>
       </c>
       <c r="E69" t="n">
-        <v>3789897</v>
+        <v>6706078</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST7449</t>
+          <t>CUST3890</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>39507715</v>
+        <v>34233665</v>
       </c>
       <c r="E70" t="n">
-        <v>6264754</v>
+        <v>7939328</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST8396</t>
+          <t>CUST7590</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>22788609</v>
+        <v>32139906</v>
       </c>
       <c r="E71" t="n">
-        <v>5108815</v>
+        <v>6825942</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-11-05</t>
+          <t>2026-11-11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST2392</t>
+          <t>CUST2079</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>19840586</v>
+        <v>38520166</v>
       </c>
       <c r="E72" t="n">
-        <v>3840597</v>
+        <v>8827026</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-11-28</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST8835</t>
+          <t>CUST8653</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>27916648</v>
+        <v>20096330</v>
       </c>
       <c r="E73" t="n">
-        <v>4868147</v>
+        <v>4957324</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST7968</t>
+          <t>CUST4453</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>17116606</v>
+        <v>33299049</v>
       </c>
       <c r="E74" t="n">
-        <v>3030933</v>
+        <v>5094119</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4439,20 +4439,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST8898</t>
+          <t>CUST1364</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>30478661</v>
+        <v>22130276</v>
       </c>
       <c r="E75" t="n">
-        <v>7046119</v>
+        <v>4002418</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4471,12 +4471,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST8835</t>
+          <t>CUST6290</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>29963374</v>
+        <v>33896501</v>
       </c>
       <c r="E76" t="n">
-        <v>6798029</v>
+        <v>5883525</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST1678</t>
+          <t>CUST7884</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>28243225</v>
+        <v>19514080</v>
       </c>
       <c r="E77" t="n">
-        <v>5367329</v>
+        <v>4762010</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-11-23</t>
+          <t>2026-11-24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST8898</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>34234088</v>
+        <v>35790544</v>
       </c>
       <c r="E78" t="n">
-        <v>7433615</v>
+        <v>5939548</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-16</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST6557</t>
+          <t>CUST2179</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30951137</v>
+        <v>35348918</v>
       </c>
       <c r="E79" t="n">
-        <v>6524133</v>
+        <v>7909541</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST9057</t>
+          <t>CUST7779</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>30503611</v>
+        <v>38234366</v>
       </c>
       <c r="E80" t="n">
-        <v>5764883</v>
+        <v>7925532</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST6646</t>
+          <t>CUST8784</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>20495414</v>
+        <v>33518607</v>
       </c>
       <c r="E81" t="n">
-        <v>3741781</v>
+        <v>5431480</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6646</t>
+          <t>CUST1669</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>34413669</v>
+        <v>24078193</v>
       </c>
       <c r="E82" t="n">
-        <v>8119748</v>
+        <v>4689285</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4866,19 +4866,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST2387</t>
+          <t>CUST3458</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>22291695</v>
+        <v>19005054</v>
       </c>
       <c r="E83" t="n">
-        <v>4792777</v>
+        <v>4374931</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -4898,17 +4898,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST5879</t>
+          <t>CUST8748</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>20465586</v>
+        <v>15385050</v>
       </c>
       <c r="E84" t="n">
-        <v>3111776</v>
+        <v>3557356</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-11-03</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST8396</t>
+          <t>CUST6290</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>32953163</v>
+        <v>26524035</v>
       </c>
       <c r="E85" t="n">
-        <v>7260650</v>
+        <v>6164158</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-11-08</t>
+          <t>2026-11-26</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST9107</t>
+          <t>CUST8624</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>19479836</v>
+        <v>25194951</v>
       </c>
       <c r="E86" t="n">
-        <v>3037822</v>
+        <v>5128197</v>
       </c>
       <c r="F86" t="n">
         <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST1056</t>
+          <t>CUST3890</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>21006520</v>
+        <v>28740725</v>
       </c>
       <c r="E87" t="n">
-        <v>4618431</v>
+        <v>7036055</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST5879</t>
+          <t>CUST4448</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>22321243</v>
+        <v>17970205</v>
       </c>
       <c r="E88" t="n">
-        <v>3358958</v>
+        <v>4409875</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST7449</t>
+          <t>CUST2987</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>36969338</v>
+        <v>21285139</v>
       </c>
       <c r="E89" t="n">
-        <v>8473409</v>
+        <v>3400027</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-11-04</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST8898</t>
+          <t>CUST2392</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>18481246</v>
+        <v>27010369</v>
       </c>
       <c r="E90" t="n">
-        <v>4401327</v>
+        <v>5196852</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST6646</t>
+          <t>CUST3242</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>20701623</v>
+        <v>39316741</v>
       </c>
       <c r="E91" t="n">
-        <v>3801259</v>
+        <v>7995683</v>
       </c>
       <c r="F91" t="n">
         <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>78.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2380364</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>513493</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5660895</v>
+        <v>3159123</v>
       </c>
       <c r="E3" t="n">
-        <v>575733</v>
+        <v>875657</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.7</v>
+        <v>83.7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>16054857</v>
+        <v>2795085</v>
       </c>
       <c r="E4" t="n">
-        <v>2512125</v>
+        <v>361765</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>17667438</v>
+        <v>5923156</v>
       </c>
       <c r="E5" t="n">
-        <v>3636583</v>
+        <v>713542</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2941757</v>
+        <v>5009990</v>
       </c>
       <c r="E6" t="n">
-        <v>486225</v>
+        <v>512557</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>11840258</v>
+        <v>3706893</v>
       </c>
       <c r="E7" t="n">
-        <v>3483922</v>
+        <v>668023</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8658147</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2091069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.5</v>
+        <v>76.5</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2474648</v>
+        <v>12621205</v>
       </c>
       <c r="E10" t="n">
-        <v>338302</v>
+        <v>3697638</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.2</v>
+        <v>88.3</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>10303262</v>
+        <v>9308250</v>
       </c>
       <c r="E11" t="n">
-        <v>1471211</v>
+        <v>1399900</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>7921517</v>
+        <v>8174389</v>
       </c>
       <c r="E12" t="n">
-        <v>1742657</v>
+        <v>2184692</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>16804371</v>
+        <v>19311750</v>
       </c>
       <c r="E13" t="n">
-        <v>4280682</v>
+        <v>4552361</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>8145726</v>
+        <v>15922913</v>
       </c>
       <c r="E14" t="n">
-        <v>1113226</v>
+        <v>4227329</v>
       </c>
     </row>
     <row r="15">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3572587</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>879601</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>4351151</v>
+        <v>17178857</v>
       </c>
       <c r="E17" t="n">
-        <v>560584</v>
+        <v>4114995</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C18" t="n">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>14964128</v>
+        <v>5110185</v>
       </c>
       <c r="E18" t="n">
-        <v>3037548</v>
+        <v>557409</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>9452646</v>
+        <v>7397104</v>
       </c>
       <c r="E19" t="n">
-        <v>2348235</v>
+        <v>1728387</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.2</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>6907025</v>
+        <v>4289428</v>
       </c>
       <c r="E20" t="n">
-        <v>1084535</v>
+        <v>1107702</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.3</v>
+        <v>76</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>6008272</v>
+        <v>5114143</v>
       </c>
       <c r="E21" t="n">
-        <v>1409377</v>
+        <v>1351160</v>
       </c>
     </row>
     <row r="22">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>9370876</v>
+        <v>7643053</v>
       </c>
       <c r="E24" t="n">
-        <v>1165920</v>
+        <v>2050036</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>4375950</v>
+        <v>12005189</v>
       </c>
       <c r="E25" t="n">
-        <v>510964</v>
+        <v>2629927</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.09999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>12471615</v>
+        <v>19888121</v>
       </c>
       <c r="E26" t="n">
-        <v>1839718</v>
+        <v>4830175</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>14523571</v>
+        <v>4145195</v>
       </c>
       <c r="E27" t="n">
-        <v>2374573</v>
+        <v>617178</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.09999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>8991581</v>
+        <v>18259456</v>
       </c>
       <c r="E28" t="n">
-        <v>1576183</v>
+        <v>3322289</v>
       </c>
     </row>
     <row r="29">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>6869992</v>
+        <v>3227448</v>
       </c>
       <c r="E31" t="n">
-        <v>2051364</v>
+        <v>963660</v>
       </c>
     </row>
   </sheetData>
